--- a/Project/SourceCode/SampleData/Sample Data.xlsx
+++ b/Project/SourceCode/SampleData/Sample Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="13395" windowHeight="5130" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="13395" windowHeight="5130" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Phòng trọ" sheetId="1" r:id="rId1"/>
@@ -1565,11 +1565,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1874,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,10 +1967,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1988,7 +1988,7 @@
       <c r="G2" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>400</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -2032,8 +2032,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="3" t="s">
         <v>62</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="F3">
         <v>20</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>401</v>
       </c>
       <c r="L3" t="s">
@@ -2087,8 +2087,8 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="G4" t="s">
         <v>218</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>402</v>
       </c>
       <c r="J4" t="s">
@@ -2148,8 +2148,8 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>249</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="F5">
         <v>20</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>403</v>
       </c>
       <c r="L5" t="s">
@@ -2203,8 +2203,8 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>67</v>
       </c>
@@ -2217,7 +2217,7 @@
       <c r="F6">
         <v>20</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>404</v>
       </c>
       <c r="M6">
@@ -2255,8 +2255,8 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>70</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="G7" t="s">
         <v>216</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>405</v>
       </c>
       <c r="M7">
@@ -2310,8 +2310,8 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3" t="s">
         <v>70</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="F8">
         <v>18</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>406</v>
       </c>
       <c r="L8" t="s">
@@ -2365,8 +2365,8 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="F9">
         <v>15</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>407</v>
       </c>
       <c r="M9">
@@ -2417,8 +2417,8 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="G10" t="s">
         <v>219</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>408</v>
       </c>
       <c r="J10" t="s">
@@ -2475,8 +2475,8 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="3" t="s">
         <v>74</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="F11">
         <v>20</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>409</v>
       </c>
       <c r="M11">
@@ -2524,8 +2524,8 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="3" t="s">
         <v>75</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="F12">
         <v>18</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>410</v>
       </c>
       <c r="M12">
@@ -2576,8 +2576,8 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
         <v>248</v>
       </c>
@@ -2593,7 +2593,7 @@
       <c r="G13" t="s">
         <v>215</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>411</v>
       </c>
       <c r="J13" t="s">
@@ -2634,8 +2634,8 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2648,7 +2648,7 @@
       <c r="F14">
         <v>20</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>412</v>
       </c>
       <c r="L14" t="s">
@@ -2686,8 +2686,8 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="3" t="s">
         <v>247</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="F15">
         <v>17</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>413</v>
       </c>
       <c r="M15">
@@ -2735,8 +2735,8 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="G16" t="s">
         <v>220</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>414</v>
       </c>
       <c r="J16" t="s">
@@ -2790,8 +2790,8 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="3" t="s">
         <v>82</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="F17">
         <v>18</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>415</v>
       </c>
       <c r="M17">
@@ -2842,8 +2842,8 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
         <v>83</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="G18" t="s">
         <v>211</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>416</v>
       </c>
       <c r="M18">
@@ -2894,8 +2894,8 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="F19">
         <v>20</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>417</v>
       </c>
       <c r="M19">
@@ -2946,8 +2946,8 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="3" t="s">
         <v>85</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="F20">
         <v>18</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>418</v>
       </c>
       <c r="M20">
@@ -2995,8 +2995,8 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="3" t="s">
         <v>88</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="G21" t="s">
         <v>214</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>419</v>
       </c>
       <c r="M21">
@@ -3047,8 +3047,8 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -3066,7 +3066,7 @@
       <c r="G22" t="s">
         <v>212</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>420</v>
       </c>
       <c r="L22" t="s">
@@ -3104,8 +3104,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="3" t="s">
         <v>91</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="G23" t="s">
         <v>213</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>421</v>
       </c>
       <c r="M23">
@@ -3156,8 +3156,8 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="3" t="s">
         <v>93</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="G24" t="s">
         <v>231</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>422</v>
       </c>
       <c r="M24">
@@ -3208,8 +3208,8 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" t="s">
         <v>95</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="F25">
         <v>22</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="15" t="s">
         <v>423</v>
       </c>
       <c r="M25">
@@ -3260,8 +3260,8 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
@@ -3279,7 +3279,7 @@
       <c r="G26" t="s">
         <v>230</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="14" t="s">
         <v>424</v>
       </c>
       <c r="M26">
@@ -3314,8 +3314,8 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" t="s">
         <v>271</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="F27">
         <v>22</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="15" t="s">
         <v>425</v>
       </c>
       <c r="M27">
@@ -3363,8 +3363,8 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="F28">
         <v>20</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>426</v>
       </c>
       <c r="M28">
@@ -3412,8 +3412,8 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" t="s">
         <v>102</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="G29" t="s">
         <v>229</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>427</v>
       </c>
       <c r="M29">
@@ -3464,8 +3464,8 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" t="s">
         <v>103</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="G30" t="s">
         <v>232</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="14" t="s">
         <v>428</v>
       </c>
       <c r="M30">
@@ -3516,8 +3516,8 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="s">
@@ -3532,7 +3532,7 @@
       <c r="F31">
         <v>20</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="15" t="s">
         <v>429</v>
       </c>
       <c r="M31">
@@ -3567,8 +3567,8 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" t="s">
         <v>107</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="F32">
         <v>15</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="15" t="s">
         <v>430</v>
       </c>
       <c r="M32">
@@ -3616,8 +3616,8 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" t="s">
         <v>112</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="G33" t="s">
         <v>233</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="14" t="s">
         <v>431</v>
       </c>
       <c r="L33" t="s">
@@ -3671,8 +3671,8 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" t="s">
         <v>113</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="F34">
         <v>15</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="15" t="s">
         <v>432</v>
       </c>
       <c r="M34">
@@ -3720,8 +3720,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" t="s">
         <v>114</v>
       </c>
@@ -3737,7 +3737,7 @@
       <c r="G35" t="s">
         <v>221</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="14" t="s">
         <v>433</v>
       </c>
       <c r="M35">
@@ -3772,10 +3772,10 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C36" t="s">
@@ -3790,7 +3790,7 @@
       <c r="F36">
         <v>14</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="15" t="s">
         <v>434</v>
       </c>
       <c r="M36">
@@ -3825,8 +3825,8 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
       <c r="C37" t="s">
         <v>117</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="F37">
         <v>18</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="15" t="s">
         <v>435</v>
       </c>
       <c r="M37">
@@ -3874,8 +3874,8 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="C38" t="s">
         <v>119</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="G38" t="s">
         <v>234</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="14" t="s">
         <v>436</v>
       </c>
       <c r="M38">
@@ -3926,8 +3926,8 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
       <c r="C39" t="s">
         <v>121</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="F39">
         <v>14</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>437</v>
       </c>
       <c r="M39">
@@ -3975,8 +3975,8 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C40" t="s">
@@ -3991,7 +3991,7 @@
       <c r="F40">
         <v>12</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="15" t="s">
         <v>438</v>
       </c>
       <c r="M40">
@@ -4026,8 +4026,8 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="G41" t="s">
         <v>223</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="14" t="s">
         <v>439</v>
       </c>
       <c r="M41">
@@ -4076,8 +4076,8 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
       <c r="C42" t="s">
         <v>123</v>
       </c>
@@ -4090,7 +4090,7 @@
       <c r="F42">
         <v>20</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="15" t="s">
         <v>440</v>
       </c>
       <c r="M42">
@@ -4125,8 +4125,8 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
       <c r="C43" t="s">
         <v>250</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="F43">
         <v>12</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="15" t="s">
         <v>441</v>
       </c>
       <c r="M43">
@@ -4174,8 +4174,8 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
       <c r="C44" t="s">
         <v>127</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="G44" t="s">
         <v>224</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="14" t="s">
         <v>442</v>
       </c>
       <c r="L44" t="s">
@@ -4229,8 +4229,8 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C45" t="s">
@@ -4245,7 +4245,7 @@
       <c r="F45">
         <v>40</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="15" t="s">
         <v>443</v>
       </c>
       <c r="M45">
@@ -4280,8 +4280,8 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
       <c r="C46" t="s">
         <v>130</v>
       </c>
@@ -4294,7 +4294,7 @@
       <c r="F46">
         <v>20</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="15" t="s">
         <v>444</v>
       </c>
       <c r="M46">
@@ -4329,8 +4329,8 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
       <c r="C47" t="s">
         <v>133</v>
       </c>
@@ -4346,7 +4346,7 @@
       <c r="G47" t="s">
         <v>222</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="14" t="s">
         <v>445</v>
       </c>
       <c r="M47">
@@ -4381,8 +4381,8 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
       <c r="C48" t="s">
         <v>134</v>
       </c>
@@ -4395,7 +4395,7 @@
       <c r="F48">
         <v>35</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="15" t="s">
         <v>446</v>
       </c>
       <c r="M48">
@@ -4430,8 +4430,8 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C49" t="s">
@@ -4446,7 +4446,7 @@
       <c r="F49">
         <v>32</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="15" t="s">
         <v>447</v>
       </c>
       <c r="M49">
@@ -4481,8 +4481,8 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
       <c r="C50" t="s">
         <v>34</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="F50">
         <v>12</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="15" t="s">
         <v>448</v>
       </c>
       <c r="M50">
@@ -4528,7 +4528,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="7" t="s">
         <v>27</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="F51">
         <v>15</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="15" t="s">
         <v>449</v>
       </c>
       <c r="M51">
@@ -4577,10 +4577,10 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C52" t="s">
@@ -4598,7 +4598,7 @@
       <c r="G52" t="s">
         <v>225</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="14" t="s">
         <v>450</v>
       </c>
       <c r="M52">
@@ -4633,8 +4633,8 @@
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
       <c r="C53" t="s">
         <v>194</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="F53">
         <v>25</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="15" t="s">
         <v>451</v>
       </c>
       <c r="L53" t="s">
@@ -4685,8 +4685,8 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
       <c r="C54" t="s">
         <v>192</v>
       </c>
@@ -4699,7 +4699,7 @@
       <c r="F54">
         <v>20</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="15" t="s">
         <v>452</v>
       </c>
       <c r="M54">
@@ -4734,8 +4734,8 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
       <c r="C55" t="s">
         <v>190</v>
       </c>
@@ -4748,7 +4748,7 @@
       <c r="F55">
         <v>20</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="15" t="s">
         <v>453</v>
       </c>
       <c r="M55">
@@ -4783,8 +4783,8 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
       <c r="C56" t="s">
         <v>188</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="F56">
         <v>9</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="15" t="s">
         <v>454</v>
       </c>
       <c r="M56">
@@ -4832,8 +4832,8 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
       <c r="C57" t="s">
         <v>187</v>
       </c>
@@ -4849,7 +4849,7 @@
       <c r="G57" t="s">
         <v>235</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="14" t="s">
         <v>455</v>
       </c>
       <c r="M57">
@@ -4884,8 +4884,8 @@
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14" t="s">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C58" t="s">
@@ -4900,7 +4900,7 @@
       <c r="F58">
         <v>14</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="15" t="s">
         <v>456</v>
       </c>
       <c r="M58">
@@ -4935,8 +4935,8 @@
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
       <c r="C59" t="s">
         <v>183</v>
       </c>
@@ -4949,7 +4949,7 @@
       <c r="F59">
         <v>20</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="15" t="s">
         <v>457</v>
       </c>
       <c r="M59">
@@ -4984,8 +4984,8 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
       <c r="C60" t="s">
         <v>181</v>
       </c>
@@ -4998,7 +4998,7 @@
       <c r="F60">
         <v>20</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="15" t="s">
         <v>458</v>
       </c>
       <c r="M60">
@@ -5033,8 +5033,8 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
       <c r="C61" t="s">
         <v>180</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="F61">
         <v>24</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="15" t="s">
         <v>459</v>
       </c>
       <c r="M61">
@@ -5082,8 +5082,8 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
       <c r="C62" t="s">
         <v>178</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="G62" t="s">
         <v>226</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="14" t="s">
         <v>460</v>
       </c>
       <c r="M62">
@@ -5134,8 +5134,8 @@
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14" t="s">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C63" t="s">
@@ -5150,7 +5150,7 @@
       <c r="F63">
         <v>16</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="H63" s="15" t="s">
         <v>461</v>
       </c>
       <c r="M63">
@@ -5185,8 +5185,8 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
       <c r="C64" t="s">
         <v>176</v>
       </c>
@@ -5199,7 +5199,7 @@
       <c r="F64">
         <v>18</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="H64" s="15" t="s">
         <v>462</v>
       </c>
       <c r="M64">
@@ -5234,8 +5234,8 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
       <c r="C65" t="s">
         <v>174</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="F65">
         <v>15</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="15" t="s">
         <v>463</v>
       </c>
       <c r="M65">
@@ -5283,8 +5283,8 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="3" t="s">
         <v>173</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="G66" t="s">
         <v>236</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="14" t="s">
         <v>464</v>
       </c>
       <c r="M66">
@@ -5335,8 +5335,8 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C67" t="s">
@@ -5351,7 +5351,7 @@
       <c r="F67">
         <v>15</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="15" t="s">
         <v>465</v>
       </c>
       <c r="M67">
@@ -5386,8 +5386,8 @@
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
       <c r="C68" t="s">
         <v>169</v>
       </c>
@@ -5400,7 +5400,7 @@
       <c r="F68">
         <v>20</v>
       </c>
-      <c r="H68" s="16" t="s">
+      <c r="H68" s="15" t="s">
         <v>466</v>
       </c>
       <c r="M68">
@@ -5435,8 +5435,8 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
       <c r="C69" t="s">
         <v>167</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="F69">
         <v>25</v>
       </c>
-      <c r="H69" s="16" t="s">
+      <c r="H69" s="15" t="s">
         <v>467</v>
       </c>
       <c r="M69">
@@ -5484,8 +5484,8 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
       <c r="C70" t="s">
         <v>166</v>
       </c>
@@ -5501,7 +5501,7 @@
       <c r="G70" t="s">
         <v>227</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="H70" s="14" t="s">
         <v>468</v>
       </c>
       <c r="M70">
@@ -5536,8 +5536,8 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14" t="s">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C71" t="s">
@@ -5552,7 +5552,7 @@
       <c r="F71">
         <v>32</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H71" s="15" t="s">
         <v>469</v>
       </c>
       <c r="M71">
@@ -5587,8 +5587,8 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
       <c r="C72" t="s">
         <v>163</v>
       </c>
@@ -5599,7 +5599,7 @@
       <c r="F72">
         <v>20</v>
       </c>
-      <c r="H72" s="16" t="s">
+      <c r="H72" s="15" t="s">
         <v>470</v>
       </c>
       <c r="M72">
@@ -5634,8 +5634,8 @@
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
       <c r="C73" t="s">
         <v>161</v>
       </c>
@@ -5651,7 +5651,7 @@
       <c r="G73" t="s">
         <v>245</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="14" t="s">
         <v>471</v>
       </c>
       <c r="M73">
@@ -5686,8 +5686,8 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
       <c r="C74" t="s">
         <v>160</v>
       </c>
@@ -5700,7 +5700,7 @@
       <c r="F74">
         <v>35</v>
       </c>
-      <c r="H74" s="16" t="s">
+      <c r="H74" s="15" t="s">
         <v>472</v>
       </c>
       <c r="M74">
@@ -5735,8 +5735,8 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
       <c r="C75" t="s">
         <v>157</v>
       </c>
@@ -5749,7 +5749,7 @@
       <c r="F75">
         <v>12</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H75" s="15" t="s">
         <v>473</v>
       </c>
       <c r="M75">
@@ -5784,8 +5784,8 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14" t="s">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C76" t="s">
@@ -5803,7 +5803,7 @@
       <c r="G76" t="s">
         <v>228</v>
       </c>
-      <c r="H76" s="15" t="s">
+      <c r="H76" s="14" t="s">
         <v>470</v>
       </c>
       <c r="M76">
@@ -5838,8 +5838,8 @@
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
       <c r="C77" t="s">
         <v>153</v>
       </c>
@@ -5852,7 +5852,7 @@
       <c r="F77">
         <v>20</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="H77" s="15" t="s">
         <v>471</v>
       </c>
       <c r="M77">
@@ -5887,8 +5887,8 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
       <c r="C78" t="s">
         <v>151</v>
       </c>
@@ -5901,7 +5901,7 @@
       <c r="F78">
         <v>25</v>
       </c>
-      <c r="H78" s="16" t="s">
+      <c r="H78" s="15" t="s">
         <v>472</v>
       </c>
       <c r="M78">
@@ -5936,8 +5936,8 @@
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
       <c r="C79" t="s">
         <v>149</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="G79" t="s">
         <v>244</v>
       </c>
-      <c r="H79" s="15" t="s">
+      <c r="H79" s="14" t="s">
         <v>473</v>
       </c>
       <c r="M79">
@@ -5988,8 +5988,8 @@
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
       <c r="C80" t="s">
         <v>251</v>
       </c>
@@ -6002,7 +6002,7 @@
       <c r="F80">
         <v>16</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H80" s="15" t="s">
         <v>474</v>
       </c>
       <c r="M80">
@@ -6037,8 +6037,8 @@
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
       <c r="C81" t="s">
         <v>146</v>
       </c>
@@ -6051,7 +6051,7 @@
       <c r="F81">
         <v>30</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="H81" s="15" t="s">
         <v>475</v>
       </c>
       <c r="M81">
@@ -6086,8 +6086,8 @@
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
       <c r="C82" t="s">
         <v>144</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="G82" t="s">
         <v>237</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="H82" s="14" t="s">
         <v>476</v>
       </c>
       <c r="M82">
@@ -6138,8 +6138,8 @@
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14" t="s">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C83" t="s">
@@ -6154,7 +6154,7 @@
       <c r="F83">
         <v>8</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="15" t="s">
         <v>477</v>
       </c>
       <c r="M83">
@@ -6189,8 +6189,8 @@
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
       <c r="C84" t="s">
         <v>140</v>
       </c>
@@ -6203,7 +6203,7 @@
       <c r="F84">
         <v>9</v>
       </c>
-      <c r="H84" s="16" t="s">
+      <c r="H84" s="15" t="s">
         <v>478</v>
       </c>
       <c r="M84">
@@ -6238,8 +6238,8 @@
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
       <c r="C85" t="s">
         <v>138</v>
       </c>
@@ -6255,7 +6255,7 @@
       <c r="G85" t="s">
         <v>238</v>
       </c>
-      <c r="H85" s="15" t="s">
+      <c r="H85" s="14" t="s">
         <v>474</v>
       </c>
       <c r="M85">
@@ -6290,8 +6290,8 @@
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
       <c r="C86" t="s">
         <v>137</v>
       </c>
@@ -6304,7 +6304,7 @@
       <c r="F86">
         <v>16</v>
       </c>
-      <c r="H86" s="16" t="s">
+      <c r="H86" s="15" t="s">
         <v>475</v>
       </c>
       <c r="M86">
@@ -6340,6 +6340,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="A2:A35"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="B52:B57"/>
     <mergeCell ref="B58:B62"/>
     <mergeCell ref="A36:A51"/>
@@ -6353,12 +6359,6 @@
     <mergeCell ref="B71:B75"/>
     <mergeCell ref="B76:B82"/>
     <mergeCell ref="B83:B86"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="A2:A35"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B31:B35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
@@ -6373,14 +6373,16 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="9" width="19.28515625" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
@@ -6394,10 +6396,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>53</v>
@@ -6461,19 +6463,19 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>252</v>
       </c>
       <c r="E2" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>400</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -6523,12 +6525,12 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="D3" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>401</v>
       </c>
       <c r="J3" t="s">
@@ -6572,15 +6574,15 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="D4" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>402</v>
       </c>
       <c r="H4" t="s">
@@ -6627,12 +6629,12 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="D5" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>403</v>
       </c>
       <c r="J5" t="s">
@@ -6676,12 +6678,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="D6" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>404</v>
       </c>
       <c r="K6">
@@ -6722,15 +6724,15 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="D7" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" t="s">
         <v>253</v>
       </c>
       <c r="E7" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>405</v>
       </c>
       <c r="K7">
@@ -6771,12 +6773,12 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="D8" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>406</v>
       </c>
       <c r="J8" t="s">
@@ -6820,12 +6822,12 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="D9" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" t="s">
         <v>255</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>407</v>
       </c>
       <c r="K9">
@@ -6866,15 +6868,15 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="D10" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" t="s">
         <v>256</v>
       </c>
       <c r="E10" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>408</v>
       </c>
       <c r="H10" t="s">
@@ -6918,12 +6920,12 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="D11" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>409</v>
       </c>
       <c r="K11">
@@ -6964,12 +6966,12 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="D12" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>410</v>
       </c>
       <c r="K12">
@@ -7010,15 +7012,15 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="D13" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" t="s">
         <v>60</v>
       </c>
       <c r="E13" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>411</v>
       </c>
       <c r="H13" t="s">
@@ -7062,14 +7064,14 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>412</v>
       </c>
       <c r="J14" t="s">
@@ -7113,12 +7115,12 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="D15" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>413</v>
       </c>
       <c r="K15">
@@ -7159,15 +7161,15 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="D16" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" t="s">
         <v>259</v>
       </c>
       <c r="E16" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>414</v>
       </c>
       <c r="H16" t="s">
@@ -7211,12 +7213,12 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="D17" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>415</v>
       </c>
       <c r="K17">
@@ -7257,15 +7259,15 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="D18" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" t="s">
         <v>261</v>
       </c>
       <c r="E18" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>416</v>
       </c>
       <c r="K18">
@@ -7306,12 +7308,12 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="D19" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" t="s">
         <v>262</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>417</v>
       </c>
       <c r="K19">
@@ -7352,12 +7354,12 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="D20" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" t="s">
         <v>263</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>418</v>
       </c>
       <c r="K20">
@@ -7398,15 +7400,15 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="D21" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" t="s">
         <v>264</v>
       </c>
       <c r="E21" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>419</v>
       </c>
       <c r="H21" t="s">
@@ -7450,15 +7452,15 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="D22" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" t="s">
         <v>265</v>
       </c>
       <c r="E22" t="s">
         <v>212</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>420</v>
       </c>
       <c r="J22" t="s">
@@ -7502,17 +7504,17 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>266</v>
       </c>
       <c r="E23" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>421</v>
       </c>
       <c r="H23" t="s">
@@ -7556,15 +7558,15 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="D24" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" t="s">
         <v>267</v>
       </c>
       <c r="E24" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>422</v>
       </c>
       <c r="K24">
@@ -7605,12 +7607,12 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="D25" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>423</v>
       </c>
       <c r="K25">
@@ -7651,17 +7653,17 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>268</v>
       </c>
       <c r="E26" t="s">
         <v>230</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>424</v>
       </c>
       <c r="K26">
@@ -7702,12 +7704,12 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="D27" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" t="s">
         <v>269</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>425</v>
       </c>
       <c r="K27">
@@ -7748,12 +7750,12 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="D28" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" t="s">
         <v>273</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>426</v>
       </c>
       <c r="K28">
@@ -7794,15 +7796,15 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="D29" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" t="s">
         <v>271</v>
       </c>
       <c r="E29" t="s">
         <v>229</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>427</v>
       </c>
       <c r="K29">
@@ -7843,15 +7845,15 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="D30" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" t="s">
         <v>274</v>
       </c>
       <c r="E30" t="s">
         <v>232</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>428</v>
       </c>
       <c r="K30">
@@ -7892,12 +7894,12 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="D31" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" t="s">
         <v>275</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>429</v>
       </c>
       <c r="K31">
@@ -7938,14 +7940,14 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>276</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>430</v>
       </c>
       <c r="K32">
@@ -7986,15 +7988,15 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="D33" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" t="s">
         <v>277</v>
       </c>
       <c r="E33" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>431</v>
       </c>
       <c r="J33" t="s">
@@ -8038,12 +8040,12 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="D34" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" t="s">
         <v>276</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="15" t="s">
         <v>432</v>
       </c>
       <c r="K34">
@@ -8084,15 +8086,15 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="D35" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" t="s">
         <v>278</v>
       </c>
       <c r="E35" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>433</v>
       </c>
       <c r="K35">
@@ -8133,16 +8135,16 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C36" t="s">
         <v>279</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="15" t="s">
         <v>434</v>
       </c>
       <c r="K36">
@@ -8183,12 +8185,12 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="D37" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" t="s">
         <v>284</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>435</v>
       </c>
       <c r="K37">
@@ -8229,15 +8231,15 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="D38" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" t="s">
         <v>285</v>
       </c>
       <c r="E38" t="s">
         <v>234</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>436</v>
       </c>
       <c r="K38">
@@ -8278,12 +8280,12 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="D39" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="15" t="s">
         <v>437</v>
       </c>
       <c r="K39">
@@ -8324,14 +8326,14 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>287</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="15" t="s">
         <v>438</v>
       </c>
       <c r="K40">
@@ -8372,15 +8374,15 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="D41" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" t="s">
         <v>288</v>
       </c>
       <c r="E41" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="14" t="s">
         <v>439</v>
       </c>
       <c r="K41">
@@ -8421,12 +8423,12 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="D42" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" t="s">
         <v>289</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="15" t="s">
         <v>440</v>
       </c>
       <c r="K42">
@@ -8467,12 +8469,12 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="D43" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>441</v>
       </c>
       <c r="K43">
@@ -8513,15 +8515,15 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="D44" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" t="s">
         <v>290</v>
       </c>
       <c r="E44" t="s">
         <v>224</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="14" t="s">
         <v>442</v>
       </c>
       <c r="J44" t="s">
@@ -8565,14 +8567,14 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C45" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="15" t="s">
         <v>443</v>
       </c>
       <c r="K45">
@@ -8613,12 +8615,12 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="D46" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" t="s">
         <v>291</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>444</v>
       </c>
       <c r="K46">
@@ -8659,15 +8661,15 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="D47" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" t="s">
         <v>292</v>
       </c>
       <c r="E47" t="s">
         <v>222</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>445</v>
       </c>
       <c r="K47">
@@ -8708,12 +8710,12 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="D48" t="s">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" t="s">
         <v>291</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="15" t="s">
         <v>446</v>
       </c>
       <c r="K48">
@@ -8754,14 +8756,14 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C49" t="s">
         <v>293</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="15" t="s">
         <v>447</v>
       </c>
       <c r="K49">
@@ -8802,12 +8804,12 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="D50" t="s">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" t="s">
         <v>294</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="15" t="s">
         <v>448</v>
       </c>
       <c r="K50">
@@ -8848,14 +8850,14 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>295</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="15" t="s">
         <v>449</v>
       </c>
       <c r="K51">
@@ -8896,19 +8898,19 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
         <v>296</v>
       </c>
       <c r="E52" t="s">
         <v>225</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>450</v>
       </c>
       <c r="K52">
@@ -8949,12 +8951,12 @@
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="D53" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" t="s">
         <v>194</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="15" t="s">
         <v>451</v>
       </c>
       <c r="J53" t="s">
@@ -8998,12 +9000,12 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="D54" t="s">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" t="s">
         <v>192</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="15" t="s">
         <v>452</v>
       </c>
       <c r="K54">
@@ -9044,12 +9046,12 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="D55" t="s">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" t="s">
         <v>190</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="15" t="s">
         <v>453</v>
       </c>
       <c r="K55">
@@ -9090,12 +9092,12 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="D56" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" t="s">
         <v>188</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="15" t="s">
         <v>454</v>
       </c>
       <c r="K56">
@@ -9133,15 +9135,15 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="D57" t="s">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" t="s">
         <v>187</v>
       </c>
       <c r="E57" t="s">
         <v>235</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="14" t="s">
         <v>455</v>
       </c>
       <c r="K57">
@@ -9182,14 +9184,14 @@
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14" t="s">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>297</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="15" t="s">
         <v>456</v>
       </c>
       <c r="K58">
@@ -9230,12 +9232,12 @@
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="D59" t="s">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" t="s">
         <v>183</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="15" t="s">
         <v>457</v>
       </c>
       <c r="K59">
@@ -9276,12 +9278,12 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="D60" t="s">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" t="s">
         <v>181</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="15" t="s">
         <v>458</v>
       </c>
       <c r="K60">
@@ -9322,12 +9324,12 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="D61" t="s">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" t="s">
         <v>180</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="15" t="s">
         <v>459</v>
       </c>
       <c r="K61">
@@ -9368,15 +9370,15 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="D62" t="s">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" t="s">
         <v>178</v>
       </c>
       <c r="E62" t="s">
         <v>226</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="14" t="s">
         <v>460</v>
       </c>
       <c r="J62" t="s">
@@ -9420,14 +9422,14 @@
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14" t="s">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D63" t="s">
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="15" t="s">
         <v>461</v>
       </c>
       <c r="K63">
@@ -9468,12 +9470,12 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="D64" t="s">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" t="s">
         <v>176</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="15" t="s">
         <v>462</v>
       </c>
       <c r="K64">
@@ -9514,12 +9516,12 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="D65" t="s">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" t="s">
         <v>174</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="15" t="s">
         <v>463</v>
       </c>
       <c r="K65">
@@ -9560,15 +9562,15 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="D66" s="3" t="s">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E66" t="s">
         <v>236</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="14" t="s">
         <v>464</v>
       </c>
       <c r="K66">
@@ -9609,14 +9611,14 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C67" t="s">
         <v>171</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="15" t="s">
         <v>465</v>
       </c>
       <c r="J67" t="s">
@@ -9660,12 +9662,12 @@
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="D68" t="s">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" t="s">
         <v>169</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="15" t="s">
         <v>466</v>
       </c>
       <c r="K68">
@@ -9706,12 +9708,12 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="D69" t="s">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" t="s">
         <v>167</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="15" t="s">
         <v>467</v>
       </c>
       <c r="K69">
@@ -9752,15 +9754,15 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="D70" t="s">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" t="s">
         <v>166</v>
       </c>
       <c r="E70" t="s">
         <v>227</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="14" t="s">
         <v>468</v>
       </c>
       <c r="H70" t="s">
@@ -9804,14 +9806,14 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14" t="s">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D71" t="s">
+      <c r="C71" t="s">
         <v>164</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="15" t="s">
         <v>469</v>
       </c>
       <c r="K71">
@@ -9852,12 +9854,12 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="D72" t="s">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" t="s">
         <v>163</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="15" t="s">
         <v>470</v>
       </c>
       <c r="K72">
@@ -9898,15 +9900,15 @@
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="D73" t="s">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" t="s">
         <v>161</v>
       </c>
       <c r="E73" t="s">
         <v>245</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="14" t="s">
         <v>471</v>
       </c>
       <c r="J73" t="s">
@@ -9950,12 +9952,12 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="D74" t="s">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" t="s">
         <v>283</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="15" t="s">
         <v>472</v>
       </c>
       <c r="K74">
@@ -9996,12 +9998,12 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="D75" t="s">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" t="s">
         <v>157</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="15" t="s">
         <v>473</v>
       </c>
       <c r="K75">
@@ -10042,17 +10044,17 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14" t="s">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D76" t="s">
+      <c r="C76" t="s">
         <v>282</v>
       </c>
       <c r="E76" t="s">
         <v>228</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="14" t="s">
         <v>470</v>
       </c>
       <c r="J76" t="s">
@@ -10096,12 +10098,12 @@
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="D77" t="s">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" t="s">
         <v>281</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="15" t="s">
         <v>471</v>
       </c>
       <c r="K77">
@@ -10142,12 +10144,12 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="D78" t="s">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" t="s">
         <v>280</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="15" t="s">
         <v>472</v>
       </c>
       <c r="K78">
@@ -10188,15 +10190,15 @@
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="D79" t="s">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" t="s">
         <v>149</v>
       </c>
       <c r="E79" t="s">
         <v>244</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F79" s="14" t="s">
         <v>473</v>
       </c>
       <c r="K79">
@@ -10237,12 +10239,12 @@
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="D80" t="s">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" t="s">
         <v>251</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="F80" s="15" t="s">
         <v>474</v>
       </c>
       <c r="K80">
@@ -10283,12 +10285,12 @@
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="D81" t="s">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" t="s">
         <v>270</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="15" t="s">
         <v>475</v>
       </c>
       <c r="K81">
@@ -10329,15 +10331,15 @@
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="D82" t="s">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" t="s">
         <v>144</v>
       </c>
       <c r="E82" t="s">
         <v>237</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="F82" s="14" t="s">
         <v>476</v>
       </c>
       <c r="J82" t="s">
@@ -10381,14 +10383,14 @@
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14" t="s">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D83" t="s">
+      <c r="C83" t="s">
         <v>142</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="15" t="s">
         <v>477</v>
       </c>
       <c r="K83">
@@ -10429,12 +10431,12 @@
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="D84" t="s">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" t="s">
         <v>140</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="F84" s="15" t="s">
         <v>478</v>
       </c>
       <c r="K84">
@@ -10475,15 +10477,15 @@
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="D85" t="s">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" t="s">
         <v>138</v>
       </c>
       <c r="E85" t="s">
         <v>238</v>
       </c>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="14" t="s">
         <v>474</v>
       </c>
       <c r="K85">
@@ -10524,12 +10526,12 @@
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="D86" t="s">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" t="s">
         <v>137</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="F86" s="15" t="s">
         <v>475</v>
       </c>
       <c r="K86">
@@ -10571,6 +10573,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A2:A35"/>
+    <mergeCell ref="A36:A51"/>
     <mergeCell ref="A52:A86"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="B36:B39"/>
@@ -10587,9 +10592,6 @@
     <mergeCell ref="B52:B57"/>
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A2:A35"/>
-    <mergeCell ref="A36:A51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
@@ -10602,7 +10604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -10696,10 +10698,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
@@ -10711,7 +10713,7 @@
       <c r="E2" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>400</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -10761,15 +10763,15 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" t="s">
         <v>311</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>401</v>
       </c>
       <c r="J3" t="s">
@@ -10813,8 +10815,8 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" t="s">
         <v>313</v>
       </c>
@@ -10824,7 +10826,7 @@
       <c r="E4" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>402</v>
       </c>
       <c r="H4" t="s">
@@ -10871,15 +10873,15 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" t="s">
         <v>315</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>403</v>
       </c>
       <c r="J5" t="s">
@@ -10923,15 +10925,15 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" t="s">
         <v>317</v>
       </c>
       <c r="D6" s="9">
         <v>30</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>404</v>
       </c>
       <c r="K6">
@@ -10972,8 +10974,8 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" t="s">
         <v>318</v>
       </c>
@@ -10983,7 +10985,7 @@
       <c r="E7" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>405</v>
       </c>
       <c r="K7">
@@ -11024,15 +11026,15 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" t="s">
         <v>320</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>406</v>
       </c>
       <c r="J8" t="s">
@@ -11076,15 +11078,15 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" t="s">
         <v>320</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>407</v>
       </c>
       <c r="K9">
@@ -11125,8 +11127,8 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" t="s">
         <v>317</v>
       </c>
@@ -11136,7 +11138,7 @@
       <c r="E10" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>408</v>
       </c>
       <c r="H10" t="s">
@@ -11180,15 +11182,15 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" t="s">
         <v>295</v>
       </c>
       <c r="D11" s="9">
         <v>121</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>409</v>
       </c>
       <c r="K11">
@@ -11229,15 +11231,15 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" t="s">
         <v>323</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>410</v>
       </c>
       <c r="K12">
@@ -11278,8 +11280,8 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" t="s">
         <v>325</v>
       </c>
@@ -11289,7 +11291,7 @@
       <c r="E13" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>411</v>
       </c>
       <c r="H13" t="s">
@@ -11333,8 +11335,8 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
@@ -11343,7 +11345,7 @@
       <c r="D14" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>412</v>
       </c>
       <c r="J14" t="s">
@@ -11387,15 +11389,15 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" t="s">
         <v>328</v>
       </c>
       <c r="D15" s="9">
         <v>170</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>413</v>
       </c>
       <c r="K15">
@@ -11436,8 +11438,8 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" t="s">
         <v>329</v>
       </c>
@@ -11447,7 +11449,7 @@
       <c r="E16" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>414</v>
       </c>
       <c r="H16" t="s">
@@ -11491,13 +11493,13 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>415</v>
       </c>
       <c r="K17">
@@ -11538,8 +11540,8 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" t="s">
         <v>82</v>
       </c>
@@ -11549,7 +11551,7 @@
       <c r="E18" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>416</v>
       </c>
       <c r="K18">
@@ -11590,15 +11592,15 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" t="s">
         <v>83</v>
       </c>
       <c r="D19" s="9">
         <v>133</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>417</v>
       </c>
       <c r="K19">
@@ -11639,15 +11641,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="9">
         <v>89</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>418</v>
       </c>
       <c r="K20">
@@ -11688,8 +11690,8 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" t="s">
         <v>83</v>
       </c>
@@ -11699,7 +11701,7 @@
       <c r="E21" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>419</v>
       </c>
       <c r="H21" t="s">
@@ -11743,8 +11745,8 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" t="s">
         <v>333</v>
       </c>
@@ -11754,7 +11756,7 @@
       <c r="E22" t="s">
         <v>212</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>420</v>
       </c>
       <c r="J22" t="s">
@@ -11798,8 +11800,8 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
@@ -11811,7 +11813,7 @@
       <c r="E23" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>421</v>
       </c>
       <c r="H23" t="s">
@@ -11855,8 +11857,8 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" t="s">
         <v>336</v>
       </c>
@@ -11866,7 +11868,7 @@
       <c r="E24" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>422</v>
       </c>
       <c r="H24" t="s">
@@ -11910,15 +11912,15 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" t="s">
         <v>337</v>
       </c>
       <c r="D25" s="9">
         <v>20</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>423</v>
       </c>
       <c r="K25">
@@ -11959,8 +11961,8 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
@@ -11972,7 +11974,7 @@
       <c r="E26" t="s">
         <v>230</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>424</v>
       </c>
       <c r="H26" t="s">
@@ -12016,15 +12018,15 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" t="s">
         <v>339</v>
       </c>
       <c r="D27" s="9">
         <v>60</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>425</v>
       </c>
       <c r="K27">
@@ -12065,15 +12067,15 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" t="s">
         <v>273</v>
       </c>
       <c r="D28" s="9">
         <v>65</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>426</v>
       </c>
       <c r="K28">
@@ -12114,8 +12116,8 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" t="s">
         <v>342</v>
       </c>
@@ -12125,7 +12127,7 @@
       <c r="E29" t="s">
         <v>229</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>427</v>
       </c>
       <c r="K29">
@@ -12166,8 +12168,8 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" t="s">
         <v>97</v>
       </c>
@@ -12177,7 +12179,7 @@
       <c r="E30" t="s">
         <v>232</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>428</v>
       </c>
       <c r="H30" s="13"/>
@@ -12219,15 +12221,15 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" t="s">
         <v>271</v>
       </c>
       <c r="D31" s="9">
         <v>25</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>429</v>
       </c>
       <c r="K31">
@@ -12268,8 +12270,8 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
@@ -12278,7 +12280,7 @@
       <c r="D32" s="9">
         <v>365</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>430</v>
       </c>
       <c r="K32">
@@ -12319,8 +12321,8 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" t="s">
         <v>340</v>
       </c>
@@ -12330,7 +12332,7 @@
       <c r="E33" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>431</v>
       </c>
       <c r="J33" t="s">
@@ -12374,15 +12376,15 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" t="s">
         <v>343</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="15" t="s">
         <v>432</v>
       </c>
       <c r="K34">
@@ -12423,8 +12425,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" t="s">
         <v>345</v>
       </c>
@@ -12434,7 +12436,7 @@
       <c r="E35" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>433</v>
       </c>
       <c r="K35">
@@ -12475,10 +12477,10 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C36" t="s">
@@ -12487,7 +12489,7 @@
       <c r="D36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="15" t="s">
         <v>434</v>
       </c>
       <c r="K36">
@@ -12528,15 +12530,15 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
       <c r="C37" t="s">
         <v>117</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>435</v>
       </c>
       <c r="K37">
@@ -12577,8 +12579,8 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="C38" t="s">
         <v>119</v>
       </c>
@@ -12588,7 +12590,7 @@
       <c r="E38" t="s">
         <v>234</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>436</v>
       </c>
       <c r="K38">
@@ -12629,15 +12631,15 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
       <c r="C39" t="s">
         <v>121</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="15" t="s">
         <v>437</v>
       </c>
       <c r="K39">
@@ -12678,8 +12680,8 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C40" t="s">
@@ -12688,7 +12690,7 @@
       <c r="D40" s="9">
         <v>90</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="15" t="s">
         <v>438</v>
       </c>
       <c r="K40">
@@ -12729,8 +12731,8 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -12738,7 +12740,7 @@
       <c r="E41" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="14" t="s">
         <v>439</v>
       </c>
       <c r="K41">
@@ -12779,15 +12781,15 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
       <c r="C42" t="s">
         <v>123</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="15" t="s">
         <v>440</v>
       </c>
       <c r="K42">
@@ -12828,15 +12830,15 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
       <c r="C43" t="s">
         <v>250</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>441</v>
       </c>
       <c r="K43">
@@ -12877,8 +12879,8 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
       <c r="C44" t="s">
         <v>127</v>
       </c>
@@ -12888,7 +12890,7 @@
       <c r="E44" t="s">
         <v>224</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="14" t="s">
         <v>442</v>
       </c>
       <c r="J44" t="s">
@@ -12932,8 +12934,8 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C45" t="s">
@@ -12942,7 +12944,7 @@
       <c r="D45" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="15" t="s">
         <v>443</v>
       </c>
       <c r="K45">
@@ -12983,15 +12985,15 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
       <c r="C46" t="s">
         <v>130</v>
       </c>
       <c r="D46" s="9">
         <v>154</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>444</v>
       </c>
       <c r="K46">
@@ -13032,8 +13034,8 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
       <c r="C47" t="s">
         <v>354</v>
       </c>
@@ -13043,7 +13045,7 @@
       <c r="E47" t="s">
         <v>222</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>445</v>
       </c>
       <c r="K47">
@@ -13084,15 +13086,15 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
       <c r="C48" t="s">
         <v>134</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="15" t="s">
         <v>446</v>
       </c>
       <c r="K48">
@@ -13133,8 +13135,8 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C49" t="s">
@@ -13143,7 +13145,7 @@
       <c r="D49" s="9">
         <v>24</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="15" t="s">
         <v>447</v>
       </c>
       <c r="K49">
@@ -13184,13 +13186,13 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
       <c r="C50" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="15" t="s">
         <v>448</v>
       </c>
       <c r="K50">
@@ -13231,14 +13233,14 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="15" t="s">
         <v>449</v>
       </c>
       <c r="K51">
@@ -13279,10 +13281,10 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C52" t="s">
@@ -13292,7 +13294,7 @@
       <c r="E52" t="s">
         <v>225</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>450</v>
       </c>
       <c r="K52">
@@ -13333,15 +13335,15 @@
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
       <c r="C53" t="s">
         <v>194</v>
       </c>
       <c r="D53" s="9">
         <v>100</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="15" t="s">
         <v>451</v>
       </c>
       <c r="J53" t="s">
@@ -13385,15 +13387,15 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
       <c r="C54" t="s">
         <v>192</v>
       </c>
       <c r="D54" s="9">
         <v>162</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="15" t="s">
         <v>452</v>
       </c>
       <c r="K54">
@@ -13434,15 +13436,15 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
       <c r="C55" t="s">
         <v>190</v>
       </c>
       <c r="D55" s="9">
         <v>65</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="15" t="s">
         <v>453</v>
       </c>
       <c r="K55">
@@ -13483,15 +13485,15 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
       <c r="C56" t="s">
         <v>188</v>
       </c>
       <c r="D56" s="9">
         <v>190</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="15" t="s">
         <v>454</v>
       </c>
       <c r="K56">
@@ -13532,8 +13534,8 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
       <c r="C57" t="s">
         <v>187</v>
       </c>
@@ -13541,7 +13543,7 @@
       <c r="E57" t="s">
         <v>235</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="14" t="s">
         <v>455</v>
       </c>
       <c r="K57">
@@ -13582,15 +13584,15 @@
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14" t="s">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C58" t="s">
         <v>297</v>
       </c>
       <c r="D58" s="9"/>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="15" t="s">
         <v>456</v>
       </c>
       <c r="K58">
@@ -13631,13 +13633,13 @@
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
       <c r="C59" t="s">
         <v>353</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="15" t="s">
         <v>457</v>
       </c>
       <c r="K59">
@@ -13678,15 +13680,15 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
       <c r="C60" t="s">
         <v>181</v>
       </c>
       <c r="D60" s="9">
         <v>675</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="15" t="s">
         <v>458</v>
       </c>
       <c r="K60">
@@ -13727,15 +13729,15 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
       <c r="C61" t="s">
         <v>180</v>
       </c>
       <c r="D61" s="9">
         <v>842</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="15" t="s">
         <v>459</v>
       </c>
       <c r="K61">
@@ -13776,8 +13778,8 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
       <c r="C62" t="s">
         <v>178</v>
       </c>
@@ -13787,7 +13789,7 @@
       <c r="E62" t="s">
         <v>226</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="14" t="s">
         <v>460</v>
       </c>
       <c r="J62" t="s">
@@ -13831,8 +13833,8 @@
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14" t="s">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C63" t="s">
@@ -13841,7 +13843,7 @@
       <c r="D63" s="9">
         <v>240</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="15" t="s">
         <v>461</v>
       </c>
       <c r="K63">
@@ -13882,15 +13884,15 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
       <c r="C64" t="s">
         <v>176</v>
       </c>
       <c r="D64" s="9">
         <v>150</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="15" t="s">
         <v>462</v>
       </c>
       <c r="K64">
@@ -13931,15 +13933,15 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
       <c r="C65" t="s">
         <v>174</v>
       </c>
       <c r="D65" s="9">
         <v>102</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="15" t="s">
         <v>463</v>
       </c>
       <c r="K65">
@@ -13980,8 +13982,8 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="3" t="s">
         <v>173</v>
       </c>
@@ -13991,7 +13993,7 @@
       <c r="E66" t="s">
         <v>236</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="14" t="s">
         <v>464</v>
       </c>
       <c r="K66">
@@ -14032,8 +14034,8 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C67" t="s">
@@ -14042,7 +14044,7 @@
       <c r="D67" s="9">
         <v>138</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="15" t="s">
         <v>465</v>
       </c>
       <c r="J67" t="s">
@@ -14086,15 +14088,15 @@
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
       <c r="C68" t="s">
         <v>169</v>
       </c>
       <c r="D68" s="9">
         <v>566</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="15" t="s">
         <v>466</v>
       </c>
       <c r="K68">
@@ -14135,15 +14137,15 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
       <c r="C69" t="s">
         <v>167</v>
       </c>
       <c r="D69" s="9">
         <v>80</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="15" t="s">
         <v>467</v>
       </c>
       <c r="K69">
@@ -14184,8 +14186,8 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
       <c r="C70" t="s">
         <v>166</v>
       </c>
@@ -14195,7 +14197,7 @@
       <c r="E70" t="s">
         <v>227</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="14" t="s">
         <v>468</v>
       </c>
       <c r="K70">
@@ -14236,8 +14238,8 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14" t="s">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C71" t="s">
@@ -14246,7 +14248,7 @@
       <c r="D71" s="9">
         <v>136</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="15" t="s">
         <v>469</v>
       </c>
       <c r="K71">
@@ -14287,15 +14289,15 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
       <c r="C72" t="s">
         <v>352</v>
       </c>
       <c r="D72" s="9">
         <v>142</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="15" t="s">
         <v>470</v>
       </c>
       <c r="K72">
@@ -14336,8 +14338,8 @@
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
       <c r="C73" t="s">
         <v>161</v>
       </c>
@@ -14347,7 +14349,7 @@
       <c r="E73" t="s">
         <v>245</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="14" t="s">
         <v>471</v>
       </c>
       <c r="J73" t="s">
@@ -14391,15 +14393,15 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
       <c r="C74" t="s">
         <v>160</v>
       </c>
       <c r="D74" s="9">
         <v>200</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="15" t="s">
         <v>472</v>
       </c>
       <c r="K74">
@@ -14440,15 +14442,15 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
       <c r="C75" t="s">
         <v>157</v>
       </c>
       <c r="D75" s="9">
         <v>135</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="15" t="s">
         <v>473</v>
       </c>
       <c r="K75">
@@ -14489,8 +14491,8 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14" t="s">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C76" t="s">
@@ -14502,7 +14504,7 @@
       <c r="E76" t="s">
         <v>228</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="14" t="s">
         <v>470</v>
       </c>
       <c r="J76" t="s">
@@ -14546,15 +14548,15 @@
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
       <c r="C77" t="s">
         <v>153</v>
       </c>
       <c r="D77" s="9">
         <v>100</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="15" t="s">
         <v>471</v>
       </c>
       <c r="K77">
@@ -14595,15 +14597,15 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
       <c r="C78" t="s">
         <v>151</v>
       </c>
       <c r="D78" s="9">
         <v>280</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="15" t="s">
         <v>472</v>
       </c>
       <c r="K78">
@@ -14644,8 +14646,8 @@
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
       <c r="C79" t="s">
         <v>149</v>
       </c>
@@ -14655,7 +14657,7 @@
       <c r="E79" t="s">
         <v>244</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F79" s="14" t="s">
         <v>473</v>
       </c>
       <c r="K79">
@@ -14696,15 +14698,15 @@
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
       <c r="C80" t="s">
         <v>251</v>
       </c>
       <c r="D80" s="9">
         <v>140</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="F80" s="15" t="s">
         <v>474</v>
       </c>
       <c r="K80">
@@ -14745,15 +14747,15 @@
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
       <c r="C81" t="s">
         <v>350</v>
       </c>
       <c r="D81" s="9">
         <v>142</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="15" t="s">
         <v>475</v>
       </c>
       <c r="K81">
@@ -14794,8 +14796,8 @@
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
       <c r="C82" t="s">
         <v>144</v>
       </c>
@@ -14805,7 +14807,7 @@
       <c r="E82" t="s">
         <v>237</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="F82" s="14" t="s">
         <v>476</v>
       </c>
       <c r="J82" t="s">
@@ -14849,8 +14851,8 @@
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14" t="s">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C83" t="s">
@@ -14859,7 +14861,7 @@
       <c r="D83" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="15" t="s">
         <v>477</v>
       </c>
       <c r="K83">
@@ -14900,15 +14902,15 @@
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
       <c r="C84" t="s">
         <v>140</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="F84" s="15" t="s">
         <v>478</v>
       </c>
       <c r="K84">
@@ -14949,8 +14951,8 @@
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
       <c r="C85" t="s">
         <v>138</v>
       </c>
@@ -14960,7 +14962,7 @@
       <c r="E85" t="s">
         <v>238</v>
       </c>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="14" t="s">
         <v>474</v>
       </c>
       <c r="K85">
@@ -15001,15 +15003,15 @@
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
       <c r="C86" t="s">
         <v>137</v>
       </c>
       <c r="D86" s="9">
         <v>510</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="F86" s="15" t="s">
         <v>475</v>
       </c>
       <c r="K86">
@@ -15051,6 +15053,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B62"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="B67:B70"/>
     <mergeCell ref="B71:B75"/>
@@ -15067,9 +15072,6 @@
     <mergeCell ref="B83:B86"/>
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B58:B62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
@@ -15082,15 +15084,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
@@ -15107,11 +15110,11 @@
       <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>53</v>
@@ -15175,22 +15178,22 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="D2" t="s">
-        <v>252</v>
       </c>
       <c r="E2" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>400</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -15240,13 +15243,13 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="9"/>
-      <c r="D3" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="D3" s="9"/>
+      <c r="F3" s="15" t="s">
         <v>401</v>
       </c>
       <c r="J3" t="s">
@@ -15290,16 +15293,16 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="9"/>
-      <c r="D4" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" t="s">
         <v>47</v>
       </c>
+      <c r="D4" s="9"/>
       <c r="E4" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>402</v>
       </c>
       <c r="H4" t="s">
@@ -15346,13 +15349,13 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="9"/>
-      <c r="D5" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="9"/>
+      <c r="F5" s="15" t="s">
         <v>403</v>
       </c>
       <c r="J5" t="s">
@@ -15396,13 +15399,13 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="9"/>
-      <c r="D6" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="9"/>
+      <c r="F6" s="15" t="s">
         <v>404</v>
       </c>
       <c r="K6">
@@ -15443,16 +15446,16 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="9"/>
-      <c r="D7" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" t="s">
         <v>253</v>
       </c>
+      <c r="D7" s="9"/>
       <c r="E7" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>405</v>
       </c>
       <c r="K7">
@@ -15493,13 +15496,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="9"/>
-      <c r="D8" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="9"/>
+      <c r="F8" s="15" t="s">
         <v>406</v>
       </c>
       <c r="J8" t="s">
@@ -15543,13 +15546,13 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="9"/>
-      <c r="D9" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" t="s">
         <v>255</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="D9" s="9"/>
+      <c r="F9" s="15" t="s">
         <v>407</v>
       </c>
       <c r="K9">
@@ -15590,16 +15593,16 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="9"/>
-      <c r="D10" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" t="s">
         <v>256</v>
       </c>
+      <c r="D10" s="9"/>
       <c r="E10" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>408</v>
       </c>
       <c r="H10" t="s">
@@ -15643,13 +15646,13 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="9"/>
-      <c r="D11" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="D11" s="9"/>
+      <c r="F11" s="15" t="s">
         <v>409</v>
       </c>
       <c r="K11">
@@ -15690,13 +15693,13 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9"/>
-      <c r="D12" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="D12" s="9"/>
+      <c r="F12" s="15" t="s">
         <v>410</v>
       </c>
       <c r="K12">
@@ -15737,16 +15740,16 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="9"/>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="9"/>
       <c r="E13" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>411</v>
       </c>
       <c r="H13" t="s">
@@ -15790,15 +15793,15 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="D14" s="9"/>
+      <c r="F14" s="15" t="s">
         <v>412</v>
       </c>
       <c r="J14" t="s">
@@ -15842,13 +15845,13 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="9"/>
-      <c r="D15" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="D15" s="9"/>
+      <c r="F15" s="15" t="s">
         <v>413</v>
       </c>
       <c r="K15">
@@ -15889,16 +15892,16 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="9"/>
-      <c r="D16" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" t="s">
         <v>259</v>
       </c>
+      <c r="D16" s="9"/>
       <c r="E16" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>414</v>
       </c>
       <c r="H16" t="s">
@@ -15942,13 +15945,13 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="9"/>
-      <c r="D17" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="D17" s="9"/>
+      <c r="F17" s="15" t="s">
         <v>415</v>
       </c>
       <c r="K17">
@@ -15989,16 +15992,16 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="9"/>
-      <c r="D18" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" t="s">
         <v>261</v>
       </c>
+      <c r="D18" s="9"/>
       <c r="E18" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>416</v>
       </c>
       <c r="K18">
@@ -16039,13 +16042,13 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="9"/>
-      <c r="D19" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" t="s">
         <v>262</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="D19" s="9"/>
+      <c r="F19" s="15" t="s">
         <v>417</v>
       </c>
       <c r="K19">
@@ -16086,13 +16089,13 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="9"/>
-      <c r="D20" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" t="s">
         <v>263</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="D20" s="9"/>
+      <c r="F20" s="15" t="s">
         <v>418</v>
       </c>
       <c r="K20">
@@ -16133,16 +16136,16 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="9"/>
-      <c r="D21" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" t="s">
         <v>264</v>
       </c>
+      <c r="D21" s="9"/>
       <c r="E21" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>419</v>
       </c>
       <c r="H21" t="s">
@@ -16186,16 +16189,16 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="9"/>
-      <c r="D22" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" t="s">
         <v>265</v>
       </c>
+      <c r="D22" s="9"/>
       <c r="E22" t="s">
         <v>212</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>420</v>
       </c>
       <c r="J22" t="s">
@@ -16239,18 +16242,18 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>266</v>
       </c>
+      <c r="D23" s="9"/>
       <c r="E23" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>421</v>
       </c>
       <c r="H23" t="s">
@@ -16294,16 +16297,16 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="9"/>
-      <c r="D24" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" t="s">
         <v>267</v>
       </c>
+      <c r="D24" s="9"/>
       <c r="E24" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>422</v>
       </c>
       <c r="H24" t="s">
@@ -16347,13 +16350,13 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="9"/>
-      <c r="D25" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="D25" s="9"/>
+      <c r="F25" s="15" t="s">
         <v>423</v>
       </c>
       <c r="K25">
@@ -16394,18 +16397,18 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>268</v>
       </c>
+      <c r="D26" s="9"/>
       <c r="E26" t="s">
         <v>230</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>424</v>
       </c>
       <c r="H26" t="s">
@@ -16449,13 +16452,13 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="9"/>
-      <c r="D27" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" t="s">
         <v>269</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="D27" s="9"/>
+      <c r="F27" s="15" t="s">
         <v>425</v>
       </c>
       <c r="K27">
@@ -16496,13 +16499,13 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="9"/>
-      <c r="D28" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" t="s">
         <v>273</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="D28" s="9"/>
+      <c r="F28" s="15" t="s">
         <v>426</v>
       </c>
       <c r="K28">
@@ -16543,16 +16546,16 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="9"/>
-      <c r="D29" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" t="s">
         <v>271</v>
       </c>
+      <c r="D29" s="9"/>
       <c r="E29" t="s">
         <v>229</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>427</v>
       </c>
       <c r="K29">
@@ -16593,16 +16596,16 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="9"/>
-      <c r="D30" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" t="s">
         <v>274</v>
       </c>
+      <c r="D30" s="9"/>
       <c r="E30" t="s">
         <v>232</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>428</v>
       </c>
       <c r="H30" s="13"/>
@@ -16644,13 +16647,13 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="9"/>
-      <c r="D31" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" t="s">
         <v>275</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="D31" s="9"/>
+      <c r="F31" s="15" t="s">
         <v>429</v>
       </c>
       <c r="K31">
@@ -16691,15 +16694,15 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>276</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="D32" s="9"/>
+      <c r="F32" s="15" t="s">
         <v>430</v>
       </c>
       <c r="K32">
@@ -16740,16 +16743,16 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="9"/>
-      <c r="D33" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" t="s">
         <v>277</v>
       </c>
+      <c r="D33" s="9"/>
       <c r="E33" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>431</v>
       </c>
       <c r="J33" t="s">
@@ -16793,13 +16796,13 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="9"/>
-      <c r="D34" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" t="s">
         <v>276</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="D34" s="9"/>
+      <c r="F34" s="15" t="s">
         <v>432</v>
       </c>
       <c r="K34">
@@ -16840,16 +16843,16 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="9"/>
-      <c r="D35" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" t="s">
         <v>278</v>
       </c>
+      <c r="D35" s="9"/>
       <c r="E35" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>433</v>
       </c>
       <c r="K35">
@@ -16890,19 +16893,19 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="9">
         <v>45</v>
       </c>
-      <c r="D36" t="s">
-        <v>279</v>
-      </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="15" t="s">
         <v>434</v>
       </c>
       <c r="K36">
@@ -16943,15 +16946,15 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="9">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="9">
         <v>33</v>
       </c>
-      <c r="D37" t="s">
-        <v>284</v>
-      </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>435</v>
       </c>
       <c r="K37">
@@ -16992,18 +16995,18 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="D38" t="s">
-        <v>285</v>
       </c>
       <c r="E38" t="s">
         <v>234</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>436</v>
       </c>
       <c r="K38">
@@ -17044,15 +17047,15 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="10" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D39" t="s">
-        <v>286</v>
-      </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="15" t="s">
         <v>437</v>
       </c>
       <c r="K39">
@@ -17093,17 +17096,17 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="9">
         <v>422</v>
       </c>
-      <c r="D40" t="s">
-        <v>287</v>
-      </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="15" t="s">
         <v>438</v>
       </c>
       <c r="K40">
@@ -17144,16 +17147,16 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="9"/>
-      <c r="D41" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" t="s">
         <v>396</v>
       </c>
+      <c r="D41" s="9"/>
       <c r="E41" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="14" t="s">
         <v>439</v>
       </c>
       <c r="K41">
@@ -17194,15 +17197,15 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="10" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" t="s">
+        <v>289</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="D42" t="s">
-        <v>289</v>
-      </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="15" t="s">
         <v>440</v>
       </c>
       <c r="K42">
@@ -17243,15 +17246,15 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="10" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="D43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>441</v>
       </c>
       <c r="K43">
@@ -17292,18 +17295,18 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="9">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" t="s">
+        <v>290</v>
+      </c>
+      <c r="D44" s="9">
         <v>28</v>
-      </c>
-      <c r="D44" t="s">
-        <v>290</v>
       </c>
       <c r="E44" t="s">
         <v>224</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="14" t="s">
         <v>442</v>
       </c>
       <c r="J44" t="s">
@@ -17347,17 +17350,17 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="9">
         <v>25</v>
       </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="15" t="s">
         <v>443</v>
       </c>
       <c r="K45">
@@ -17398,15 +17401,15 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="9">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" s="9">
         <v>72</v>
       </c>
-      <c r="D46" t="s">
-        <v>291</v>
-      </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>444</v>
       </c>
       <c r="K46">
@@ -17447,18 +17450,18 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="9">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" s="9">
         <v>20</v>
-      </c>
-      <c r="D47" t="s">
-        <v>292</v>
       </c>
       <c r="E47" t="s">
         <v>222</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>445</v>
       </c>
       <c r="K47">
@@ -17499,15 +17502,15 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="9">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="9">
         <v>275</v>
       </c>
-      <c r="D48" t="s">
-        <v>291</v>
-      </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="15" t="s">
         <v>446</v>
       </c>
       <c r="K48">
@@ -17548,17 +17551,17 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" t="s">
+        <v>293</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="D49" t="s">
-        <v>293</v>
-      </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="15" t="s">
         <v>447</v>
       </c>
       <c r="K49">
@@ -17599,13 +17602,13 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="9"/>
-      <c r="D50" t="s">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" t="s">
         <v>369</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="D50" s="9"/>
+      <c r="F50" s="15" t="s">
         <v>448</v>
       </c>
       <c r="K50">
@@ -17646,17 +17649,17 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" t="s">
+        <v>392</v>
+      </c>
+      <c r="D51" s="7">
         <v>38</v>
       </c>
-      <c r="D51" t="s">
-        <v>392</v>
-      </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="15" t="s">
         <v>449</v>
       </c>
       <c r="K51">
@@ -17697,20 +17700,20 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
         <v>296</v>
       </c>
+      <c r="D52" s="9"/>
       <c r="E52" t="s">
         <v>225</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>450</v>
       </c>
       <c r="K52">
@@ -17751,13 +17754,13 @@
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="9"/>
-      <c r="D53" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" t="s">
         <v>194</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="D53" s="9"/>
+      <c r="F53" s="15" t="s">
         <v>451</v>
       </c>
       <c r="J53" t="s">
@@ -17801,13 +17804,13 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="9"/>
-      <c r="D54" t="s">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" t="s">
         <v>192</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="D54" s="9"/>
+      <c r="F54" s="15" t="s">
         <v>452</v>
       </c>
       <c r="K54">
@@ -17848,13 +17851,13 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="9"/>
-      <c r="D55" t="s">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" t="s">
         <v>190</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="D55" s="9"/>
+      <c r="F55" s="15" t="s">
         <v>453</v>
       </c>
       <c r="K55">
@@ -17895,13 +17898,13 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="9"/>
-      <c r="D56" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" t="s">
         <v>188</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="D56" s="9"/>
+      <c r="F56" s="15" t="s">
         <v>454</v>
       </c>
       <c r="K56">
@@ -17942,16 +17945,16 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="9"/>
-      <c r="D57" t="s">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" t="s">
         <v>187</v>
       </c>
+      <c r="D57" s="9"/>
       <c r="E57" t="s">
         <v>235</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="14" t="s">
         <v>455</v>
       </c>
       <c r="K57">
@@ -17992,15 +17995,15 @@
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14" t="s">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>297</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="D58" s="9"/>
+      <c r="F58" s="15" t="s">
         <v>456</v>
       </c>
       <c r="K58">
@@ -18041,13 +18044,13 @@
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="9"/>
-      <c r="D59" t="s">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" t="s">
         <v>353</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="D59" s="9"/>
+      <c r="F59" s="15" t="s">
         <v>457</v>
       </c>
       <c r="K59">
@@ -18088,13 +18091,13 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="9"/>
-      <c r="D60" t="s">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" t="s">
         <v>181</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="D60" s="9"/>
+      <c r="F60" s="15" t="s">
         <v>458</v>
       </c>
       <c r="K60">
@@ -18135,13 +18138,13 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="9"/>
-      <c r="D61" t="s">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" t="s">
         <v>180</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="D61" s="9"/>
+      <c r="F61" s="15" t="s">
         <v>459</v>
       </c>
       <c r="K61">
@@ -18182,16 +18185,16 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="9"/>
-      <c r="D62" t="s">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" t="s">
         <v>178</v>
       </c>
+      <c r="D62" s="9"/>
       <c r="E62" t="s">
         <v>226</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="14" t="s">
         <v>460</v>
       </c>
       <c r="J62" t="s">
@@ -18235,15 +18238,15 @@
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14" t="s">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" t="s">
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="D63" s="9"/>
+      <c r="F63" s="15" t="s">
         <v>461</v>
       </c>
       <c r="K63">
@@ -18284,13 +18287,13 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="9"/>
-      <c r="D64" t="s">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" t="s">
         <v>176</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="D64" s="9"/>
+      <c r="F64" s="15" t="s">
         <v>462</v>
       </c>
       <c r="K64">
@@ -18331,13 +18334,13 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="9"/>
-      <c r="D65" t="s">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" t="s">
         <v>174</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="D65" s="9"/>
+      <c r="F65" s="15" t="s">
         <v>463</v>
       </c>
       <c r="K65">
@@ -18378,16 +18381,16 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="3" t="s">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="D66" s="9"/>
       <c r="E66" t="s">
         <v>236</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="14" t="s">
         <v>464</v>
       </c>
       <c r="K66">
@@ -18428,15 +18431,15 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" t="s">
+      <c r="C67" t="s">
         <v>171</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="D67" s="9"/>
+      <c r="F67" s="15" t="s">
         <v>465</v>
       </c>
       <c r="J67" t="s">
@@ -18480,13 +18483,13 @@
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="9"/>
-      <c r="D68" t="s">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" t="s">
         <v>169</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="D68" s="9"/>
+      <c r="F68" s="15" t="s">
         <v>466</v>
       </c>
       <c r="K68">
@@ -18527,13 +18530,13 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="9"/>
-      <c r="D69" t="s">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" t="s">
         <v>167</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="D69" s="9"/>
+      <c r="F69" s="15" t="s">
         <v>467</v>
       </c>
       <c r="K69">
@@ -18574,16 +18577,16 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="9"/>
-      <c r="D70" t="s">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" t="s">
         <v>166</v>
       </c>
+      <c r="D70" s="9"/>
       <c r="E70" t="s">
         <v>227</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="14" t="s">
         <v>468</v>
       </c>
       <c r="K70">
@@ -18624,15 +18627,15 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14" t="s">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" t="s">
+      <c r="C71" t="s">
         <v>164</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="D71" s="9"/>
+      <c r="F71" s="15" t="s">
         <v>469</v>
       </c>
       <c r="K71">
@@ -18673,13 +18676,13 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="9"/>
-      <c r="D72" t="s">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" t="s">
         <v>352</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="D72" s="9"/>
+      <c r="F72" s="15" t="s">
         <v>470</v>
       </c>
       <c r="K72">
@@ -18720,16 +18723,16 @@
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="9"/>
-      <c r="D73" t="s">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" t="s">
         <v>161</v>
       </c>
+      <c r="D73" s="9"/>
       <c r="E73" t="s">
         <v>245</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="14" t="s">
         <v>471</v>
       </c>
       <c r="J73" t="s">
@@ -18773,13 +18776,13 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="9"/>
-      <c r="D74" t="s">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" t="s">
         <v>160</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="D74" s="9"/>
+      <c r="F74" s="15" t="s">
         <v>472</v>
       </c>
       <c r="K74">
@@ -18820,13 +18823,13 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="9"/>
-      <c r="D75" t="s">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" t="s">
         <v>157</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="D75" s="9"/>
+      <c r="F75" s="15" t="s">
         <v>473</v>
       </c>
       <c r="K75">
@@ -18867,18 +18870,18 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14" t="s">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" t="s">
+      <c r="C76" t="s">
         <v>282</v>
       </c>
+      <c r="D76" s="9"/>
       <c r="E76" t="s">
         <v>228</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="14" t="s">
         <v>470</v>
       </c>
       <c r="J76" t="s">
@@ -18922,13 +18925,13 @@
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="9"/>
-      <c r="D77" t="s">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" t="s">
         <v>153</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="D77" s="9"/>
+      <c r="F77" s="15" t="s">
         <v>471</v>
       </c>
       <c r="K77">
@@ -18969,13 +18972,13 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="9"/>
-      <c r="D78" t="s">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" t="s">
         <v>151</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="D78" s="9"/>
+      <c r="F78" s="15" t="s">
         <v>472</v>
       </c>
       <c r="K78">
@@ -19016,16 +19019,16 @@
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="9"/>
-      <c r="D79" t="s">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" t="s">
         <v>149</v>
       </c>
+      <c r="D79" s="9"/>
       <c r="E79" t="s">
         <v>244</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F79" s="14" t="s">
         <v>473</v>
       </c>
       <c r="K79">
@@ -19066,13 +19069,13 @@
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="9"/>
-      <c r="D80" t="s">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" t="s">
         <v>251</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="D80" s="9"/>
+      <c r="F80" s="15" t="s">
         <v>474</v>
       </c>
       <c r="K80">
@@ -19113,13 +19116,13 @@
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="9"/>
-      <c r="D81" t="s">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" t="s">
         <v>350</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="D81" s="9"/>
+      <c r="F81" s="15" t="s">
         <v>475</v>
       </c>
       <c r="K81">
@@ -19160,16 +19163,16 @@
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="9"/>
-      <c r="D82" t="s">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" t="s">
         <v>144</v>
       </c>
+      <c r="D82" s="9"/>
       <c r="E82" t="s">
         <v>237</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="F82" s="14" t="s">
         <v>476</v>
       </c>
       <c r="J82" t="s">
@@ -19213,15 +19216,15 @@
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14" t="s">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" t="s">
+      <c r="C83" t="s">
         <v>142</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="D83" s="9"/>
+      <c r="F83" s="15" t="s">
         <v>477</v>
       </c>
       <c r="K83">
@@ -19262,13 +19265,13 @@
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="9"/>
-      <c r="D84" t="s">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" t="s">
         <v>140</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="D84" s="9"/>
+      <c r="F84" s="15" t="s">
         <v>478</v>
       </c>
       <c r="K84">
@@ -19309,16 +19312,16 @@
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="9"/>
-      <c r="D85" t="s">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" t="s">
         <v>138</v>
       </c>
+      <c r="D85" s="9"/>
       <c r="E85" t="s">
         <v>238</v>
       </c>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="14" t="s">
         <v>474</v>
       </c>
       <c r="K85">
@@ -19359,13 +19362,13 @@
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="9"/>
-      <c r="D86" t="s">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" t="s">
         <v>137</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="D86" s="9"/>
+      <c r="F86" s="15" t="s">
         <v>475</v>
       </c>
       <c r="K86">
@@ -19407,17 +19410,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A35"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A36:A51"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B50"/>
     <mergeCell ref="A52:A86"/>
     <mergeCell ref="B52:B57"/>
     <mergeCell ref="B58:B62"/>
@@ -19426,6 +19418,17 @@
     <mergeCell ref="B71:B75"/>
     <mergeCell ref="B76:B82"/>
     <mergeCell ref="B83:B86"/>
+    <mergeCell ref="A36:A51"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A2:A35"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
@@ -19438,15 +19441,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" style="7" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
@@ -19464,11 +19468,11 @@
       <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>53</v>
@@ -19532,22 +19536,22 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>362</v>
-      </c>
-      <c r="E2" t="s">
-        <v>361</v>
       </c>
       <c r="F2" t="s">
         <v>217</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>400</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -19597,15 +19601,15 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="10">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="10">
         <v>200</v>
       </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>401</v>
       </c>
       <c r="K3" t="s">
@@ -19649,18 +19653,18 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="10">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="10">
         <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
       </c>
       <c r="F4" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>402</v>
       </c>
       <c r="I4" t="s">
@@ -19707,13 +19711,13 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="9"/>
-      <c r="E5" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="E5" s="9"/>
+      <c r="G5" s="15" t="s">
         <v>403</v>
       </c>
       <c r="K5" t="s">
@@ -19757,15 +19761,15 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="10">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="10">
         <v>100</v>
       </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>404</v>
       </c>
       <c r="L6">
@@ -19806,18 +19810,18 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="9">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="9">
         <v>165</v>
-      </c>
-      <c r="E7" t="s">
-        <v>253</v>
       </c>
       <c r="F7" t="s">
         <v>216</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>405</v>
       </c>
       <c r="L7">
@@ -19858,15 +19862,15 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="E8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>406</v>
       </c>
       <c r="K8" t="s">
@@ -19910,15 +19914,15 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="10">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="10">
         <v>162</v>
       </c>
-      <c r="E9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>407</v>
       </c>
       <c r="L9">
@@ -19959,18 +19963,18 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="E10" t="s">
-        <v>365</v>
       </c>
       <c r="F10" t="s">
         <v>219</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>408</v>
       </c>
       <c r="I10" t="s">
@@ -20014,15 +20018,15 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="9">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="9">
         <v>180</v>
       </c>
-      <c r="E11" t="s">
-        <v>257</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>409</v>
       </c>
       <c r="L11">
@@ -20063,15 +20067,15 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>410</v>
       </c>
       <c r="L12">
@@ -20112,18 +20116,18 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
       </c>
       <c r="F13" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>411</v>
       </c>
       <c r="I13" t="s">
@@ -20167,17 +20171,17 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="E14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>412</v>
       </c>
       <c r="K14" t="s">
@@ -20221,15 +20225,15 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="9">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="9">
         <v>110</v>
       </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>413</v>
       </c>
       <c r="L15">
@@ -20270,18 +20274,18 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="E16" t="s">
-        <v>259</v>
       </c>
       <c r="F16" t="s">
         <v>220</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>414</v>
       </c>
       <c r="I16" t="s">
@@ -20325,15 +20329,15 @@
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="E17" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>415</v>
       </c>
       <c r="L17">
@@ -20374,18 +20378,18 @@
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>373</v>
-      </c>
-      <c r="E18" t="s">
-        <v>372</v>
       </c>
       <c r="F18" t="s">
         <v>211</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>416</v>
       </c>
       <c r="L18">
@@ -20426,15 +20430,15 @@
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="E19" t="s">
-        <v>374</v>
-      </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>417</v>
       </c>
       <c r="L19">
@@ -20475,15 +20479,15 @@
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="E20" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>418</v>
       </c>
       <c r="L20">
@@ -20524,16 +20528,16 @@
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="9"/>
-      <c r="E21" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" t="s">
         <v>264</v>
       </c>
+      <c r="E21" s="9"/>
       <c r="F21" t="s">
         <v>214</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>419</v>
       </c>
       <c r="I21" t="s">
@@ -20577,18 +20581,18 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>377</v>
-      </c>
-      <c r="E22" t="s">
-        <v>265</v>
       </c>
       <c r="F22" t="s">
         <v>212</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>420</v>
       </c>
       <c r="K22" t="s">
@@ -20632,18 +20636,18 @@
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" t="s">
+      <c r="D23" t="s">
         <v>266</v>
       </c>
+      <c r="E23" s="9"/>
       <c r="F23" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>421</v>
       </c>
       <c r="I23" t="s">
@@ -20687,16 +20691,16 @@
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="9"/>
-      <c r="E24" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" t="s">
         <v>267</v>
       </c>
+      <c r="E24" s="9"/>
       <c r="F24" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>422</v>
       </c>
       <c r="I24" t="s">
@@ -20740,13 +20744,13 @@
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="9"/>
-      <c r="E25" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="E25" s="9"/>
+      <c r="G25" s="15" t="s">
         <v>423</v>
       </c>
       <c r="L25">
@@ -20787,20 +20791,20 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="E26" t="s">
-        <v>268</v>
       </c>
       <c r="F26" t="s">
         <v>230</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>424</v>
       </c>
       <c r="I26" t="s">
@@ -20844,15 +20848,15 @@
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="10" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" t="s">
+        <v>269</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="E27" t="s">
-        <v>269</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>425</v>
       </c>
       <c r="L27">
@@ -20893,15 +20897,15 @@
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="10" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="E28" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>426</v>
       </c>
       <c r="L28">
@@ -20942,18 +20946,18 @@
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="9">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" s="9">
         <v>134</v>
-      </c>
-      <c r="E29" t="s">
-        <v>271</v>
       </c>
       <c r="F29" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>427</v>
       </c>
       <c r="L29">
@@ -20994,18 +20998,18 @@
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="9" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="E30" t="s">
-        <v>274</v>
       </c>
       <c r="F30" t="s">
         <v>232</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>428</v>
       </c>
       <c r="I30" s="13"/>
@@ -21047,15 +21051,15 @@
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="9" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="E31" t="s">
-        <v>382</v>
-      </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>429</v>
       </c>
       <c r="L31">
@@ -21096,17 +21100,17 @@
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E32" t="s">
-        <v>276</v>
-      </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>430</v>
       </c>
       <c r="L32">
@@ -21147,18 +21151,18 @@
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="10" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="E33" t="s">
-        <v>277</v>
       </c>
       <c r="F33" t="s">
         <v>233</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="14" t="s">
         <v>431</v>
       </c>
       <c r="K33" t="s">
@@ -21202,15 +21206,15 @@
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="10" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" t="s">
+        <v>276</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E34" t="s">
-        <v>276</v>
-      </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>432</v>
       </c>
       <c r="L34">
@@ -21251,18 +21255,18 @@
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="9" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="E35" t="s">
-        <v>278</v>
       </c>
       <c r="F35" t="s">
         <v>221</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="14" t="s">
         <v>433</v>
       </c>
       <c r="L35">
@@ -21303,17 +21307,17 @@
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" t="s">
+      <c r="D36" t="s">
         <v>279</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="E36" s="9"/>
+      <c r="G36" s="15" t="s">
         <v>434</v>
       </c>
       <c r="L36">
@@ -21354,13 +21358,13 @@
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="9"/>
-      <c r="E37" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" t="s">
         <v>284</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="E37" s="9"/>
+      <c r="G37" s="15" t="s">
         <v>435</v>
       </c>
       <c r="L37">
@@ -21401,16 +21405,16 @@
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="9"/>
-      <c r="E38" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" t="s">
         <v>285</v>
       </c>
+      <c r="E38" s="9"/>
       <c r="F38" t="s">
         <v>234</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="14" t="s">
         <v>436</v>
       </c>
       <c r="L38">
@@ -21451,13 +21455,13 @@
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="9"/>
-      <c r="E39" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" t="s">
         <v>286</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="E39" s="9"/>
+      <c r="G39" s="15" t="s">
         <v>437</v>
       </c>
       <c r="L39">
@@ -21498,15 +21502,15 @@
       </c>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" t="s">
+      <c r="D40" t="s">
         <v>287</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="E40" s="9"/>
+      <c r="G40" s="15" t="s">
         <v>438</v>
       </c>
       <c r="L40">
@@ -21547,16 +21551,16 @@
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="9"/>
-      <c r="E41" t="s">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" t="s">
         <v>288</v>
       </c>
+      <c r="E41" s="9"/>
       <c r="F41" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="14" t="s">
         <v>439</v>
       </c>
       <c r="L41">
@@ -21597,13 +21601,13 @@
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="9"/>
-      <c r="E42" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" t="s">
         <v>289</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="E42" s="9"/>
+      <c r="G42" s="15" t="s">
         <v>440</v>
       </c>
       <c r="L42">
@@ -21644,13 +21648,13 @@
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="9"/>
-      <c r="E43" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="E43" s="9"/>
+      <c r="G43" s="15" t="s">
         <v>441</v>
       </c>
       <c r="L43">
@@ -21691,16 +21695,16 @@
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="9"/>
-      <c r="E44" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" t="s">
         <v>290</v>
       </c>
+      <c r="E44" s="9"/>
       <c r="F44" t="s">
         <v>224</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="14" t="s">
         <v>442</v>
       </c>
       <c r="K44" t="s">
@@ -21744,15 +21748,15 @@
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14" t="s">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" t="s">
+      <c r="D45" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="E45" s="9"/>
+      <c r="G45" s="15" t="s">
         <v>443</v>
       </c>
       <c r="L45">
@@ -21793,13 +21797,13 @@
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="9"/>
-      <c r="E46" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" t="s">
         <v>291</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="E46" s="9"/>
+      <c r="G46" s="15" t="s">
         <v>444</v>
       </c>
       <c r="L46">
@@ -21840,16 +21844,16 @@
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="9"/>
-      <c r="E47" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" t="s">
         <v>292</v>
       </c>
+      <c r="E47" s="9"/>
       <c r="F47" t="s">
         <v>222</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="14" t="s">
         <v>445</v>
       </c>
       <c r="L47">
@@ -21890,13 +21894,13 @@
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="9"/>
-      <c r="E48" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" t="s">
         <v>291</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="E48" s="9"/>
+      <c r="G48" s="15" t="s">
         <v>446</v>
       </c>
       <c r="L48">
@@ -21937,15 +21941,15 @@
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" t="s">
+      <c r="D49" t="s">
         <v>293</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="E49" s="9"/>
+      <c r="G49" s="15" t="s">
         <v>447</v>
       </c>
       <c r="L49">
@@ -21986,13 +21990,13 @@
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="9"/>
-      <c r="E50" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" t="s">
         <v>369</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="E50" s="9"/>
+      <c r="G50" s="15" t="s">
         <v>448</v>
       </c>
       <c r="L50">
@@ -22033,17 +22037,17 @@
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="14"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="7">
         <v>28</v>
       </c>
-      <c r="E51" t="s">
-        <v>295</v>
-      </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="15" t="s">
         <v>449</v>
       </c>
       <c r="L51">
@@ -22084,20 +22088,20 @@
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" t="s">
+      <c r="D52" t="s">
         <v>296</v>
       </c>
+      <c r="E52" s="9"/>
       <c r="F52" t="s">
         <v>225</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="14" t="s">
         <v>450</v>
       </c>
       <c r="L52">
@@ -22138,13 +22142,13 @@
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="9"/>
-      <c r="E53" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" t="s">
         <v>194</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="E53" s="9"/>
+      <c r="G53" s="15" t="s">
         <v>451</v>
       </c>
       <c r="K53" t="s">
@@ -22188,13 +22192,13 @@
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="9"/>
-      <c r="E54" t="s">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" t="s">
         <v>192</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="E54" s="9"/>
+      <c r="G54" s="15" t="s">
         <v>452</v>
       </c>
       <c r="L54">
@@ -22235,13 +22239,13 @@
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="9"/>
-      <c r="E55" t="s">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" t="s">
         <v>190</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="E55" s="9"/>
+      <c r="G55" s="15" t="s">
         <v>453</v>
       </c>
       <c r="L55">
@@ -22282,13 +22286,13 @@
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="9"/>
-      <c r="E56" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" t="s">
         <v>188</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="E56" s="9"/>
+      <c r="G56" s="15" t="s">
         <v>454</v>
       </c>
       <c r="L56">
@@ -22329,16 +22333,16 @@
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="9"/>
-      <c r="E57" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" t="s">
         <v>187</v>
       </c>
+      <c r="E57" s="9"/>
       <c r="F57" t="s">
         <v>235</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="14" t="s">
         <v>455</v>
       </c>
       <c r="L57">
@@ -22379,15 +22383,15 @@
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" t="s">
+      <c r="D58" t="s">
         <v>297</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="E58" s="9"/>
+      <c r="G58" s="15" t="s">
         <v>456</v>
       </c>
       <c r="L58">
@@ -22428,13 +22432,13 @@
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="9"/>
-      <c r="E59" t="s">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" t="s">
         <v>353</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="E59" s="9"/>
+      <c r="G59" s="15" t="s">
         <v>457</v>
       </c>
       <c r="L59">
@@ -22475,13 +22479,13 @@
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="9"/>
-      <c r="E60" t="s">
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" t="s">
         <v>181</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="E60" s="9"/>
+      <c r="G60" s="15" t="s">
         <v>458</v>
       </c>
       <c r="L60">
@@ -22522,13 +22526,13 @@
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="9"/>
-      <c r="E61" t="s">
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" t="s">
         <v>180</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="E61" s="9"/>
+      <c r="G61" s="15" t="s">
         <v>459</v>
       </c>
       <c r="L61">
@@ -22569,16 +22573,16 @@
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="9"/>
-      <c r="E62" t="s">
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" t="s">
         <v>178</v>
       </c>
+      <c r="E62" s="9"/>
       <c r="F62" t="s">
         <v>226</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G62" s="14" t="s">
         <v>460</v>
       </c>
       <c r="K62" t="s">
@@ -22622,15 +22626,15 @@
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14" t="s">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" t="s">
+      <c r="D63" t="s">
         <v>169</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="E63" s="9"/>
+      <c r="G63" s="15" t="s">
         <v>461</v>
       </c>
       <c r="L63">
@@ -22671,13 +22675,13 @@
       </c>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="9"/>
-      <c r="E64" t="s">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" t="s">
         <v>176</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="E64" s="9"/>
+      <c r="G64" s="15" t="s">
         <v>462</v>
       </c>
       <c r="L64">
@@ -22718,13 +22722,13 @@
       </c>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="9"/>
-      <c r="E65" t="s">
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" t="s">
         <v>174</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="E65" s="9"/>
+      <c r="G65" s="15" t="s">
         <v>463</v>
       </c>
       <c r="L65">
@@ -22765,16 +22769,16 @@
       </c>
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="3" t="s">
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="E66" s="9"/>
       <c r="F66" t="s">
         <v>236</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="14" t="s">
         <v>464</v>
       </c>
       <c r="L66">
@@ -22815,15 +22819,15 @@
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B67" s="14"/>
-      <c r="C67" s="14" t="s">
+      <c r="B67" s="16"/>
+      <c r="C67" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" t="s">
+      <c r="D67" t="s">
         <v>171</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="E67" s="9"/>
+      <c r="G67" s="15" t="s">
         <v>465</v>
       </c>
       <c r="K67" t="s">
@@ -22867,13 +22871,13 @@
       </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="9"/>
-      <c r="E68" t="s">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" t="s">
         <v>169</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="E68" s="9"/>
+      <c r="G68" s="15" t="s">
         <v>466</v>
       </c>
       <c r="L68">
@@ -22914,13 +22918,13 @@
       </c>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="9"/>
-      <c r="E69" t="s">
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" t="s">
         <v>167</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="E69" s="9"/>
+      <c r="G69" s="15" t="s">
         <v>467</v>
       </c>
       <c r="L69">
@@ -22961,16 +22965,16 @@
       </c>
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="9"/>
-      <c r="E70" t="s">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" t="s">
         <v>166</v>
       </c>
+      <c r="E70" s="9"/>
       <c r="F70" t="s">
         <v>227</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="G70" s="14" t="s">
         <v>468</v>
       </c>
       <c r="L70">
@@ -23011,15 +23015,15 @@
       </c>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14" t="s">
+      <c r="B71" s="16"/>
+      <c r="C71" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" t="s">
+      <c r="D71" t="s">
         <v>164</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="E71" s="9"/>
+      <c r="G71" s="15" t="s">
         <v>469</v>
       </c>
       <c r="L71">
@@ -23060,13 +23064,13 @@
       </c>
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="9"/>
-      <c r="E72" t="s">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" t="s">
         <v>352</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="E72" s="9"/>
+      <c r="G72" s="15" t="s">
         <v>470</v>
       </c>
       <c r="L72">
@@ -23107,16 +23111,16 @@
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="9"/>
-      <c r="E73" t="s">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" t="s">
         <v>161</v>
       </c>
+      <c r="E73" s="9"/>
       <c r="F73" t="s">
         <v>245</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="14" t="s">
         <v>471</v>
       </c>
       <c r="K73" t="s">
@@ -23160,13 +23164,13 @@
       </c>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="9"/>
-      <c r="E74" t="s">
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" t="s">
         <v>160</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="E74" s="9"/>
+      <c r="G74" s="15" t="s">
         <v>472</v>
       </c>
       <c r="L74">
@@ -23207,13 +23211,13 @@
       </c>
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="9"/>
-      <c r="E75" t="s">
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" t="s">
         <v>157</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="E75" s="9"/>
+      <c r="G75" s="15" t="s">
         <v>473</v>
       </c>
       <c r="L75">
@@ -23254,18 +23258,18 @@
       </c>
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B76" s="14"/>
-      <c r="C76" s="14" t="s">
+      <c r="B76" s="16"/>
+      <c r="C76" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" t="s">
+      <c r="D76" t="s">
         <v>282</v>
       </c>
+      <c r="E76" s="9"/>
       <c r="F76" t="s">
         <v>228</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="14" t="s">
         <v>470</v>
       </c>
       <c r="K76" t="s">
@@ -23309,13 +23313,13 @@
       </c>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="9"/>
-      <c r="E77" t="s">
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" t="s">
         <v>153</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="E77" s="9"/>
+      <c r="G77" s="15" t="s">
         <v>471</v>
       </c>
       <c r="L77">
@@ -23356,13 +23360,13 @@
       </c>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="9"/>
-      <c r="E78" t="s">
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" t="s">
         <v>151</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="E78" s="9"/>
+      <c r="G78" s="15" t="s">
         <v>472</v>
       </c>
       <c r="L78">
@@ -23403,16 +23407,16 @@
       </c>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="9"/>
-      <c r="E79" t="s">
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" t="s">
         <v>149</v>
       </c>
+      <c r="E79" s="9"/>
       <c r="F79" t="s">
         <v>244</v>
       </c>
-      <c r="G79" s="15" t="s">
+      <c r="G79" s="14" t="s">
         <v>473</v>
       </c>
       <c r="L79">
@@ -23453,13 +23457,13 @@
       </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="9"/>
-      <c r="E80" t="s">
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" t="s">
         <v>251</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="E80" s="9"/>
+      <c r="G80" s="15" t="s">
         <v>474</v>
       </c>
       <c r="L80">
@@ -23500,13 +23504,13 @@
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="9"/>
-      <c r="E81" t="s">
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" t="s">
         <v>350</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="E81" s="9"/>
+      <c r="G81" s="15" t="s">
         <v>475</v>
       </c>
       <c r="L81">
@@ -23547,16 +23551,16 @@
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="9"/>
-      <c r="E82" t="s">
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" t="s">
         <v>144</v>
       </c>
+      <c r="E82" s="9"/>
       <c r="F82" t="s">
         <v>237</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="14" t="s">
         <v>476</v>
       </c>
       <c r="K82" t="s">
@@ -23600,15 +23604,15 @@
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B83" s="14"/>
-      <c r="C83" s="14" t="s">
+      <c r="B83" s="16"/>
+      <c r="C83" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" t="s">
+      <c r="D83" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="E83" s="9"/>
+      <c r="G83" s="15" t="s">
         <v>477</v>
       </c>
       <c r="L83">
@@ -23649,13 +23653,13 @@
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="9"/>
-      <c r="E84" t="s">
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" t="s">
         <v>140</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="E84" s="9"/>
+      <c r="G84" s="15" t="s">
         <v>478</v>
       </c>
       <c r="L84">
@@ -23696,16 +23700,16 @@
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="9"/>
-      <c r="E85" t="s">
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" t="s">
         <v>138</v>
       </c>
+      <c r="E85" s="9"/>
       <c r="F85" t="s">
         <v>238</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="G85" s="14" t="s">
         <v>474</v>
       </c>
       <c r="L85">
@@ -23746,13 +23750,13 @@
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="10"/>
-      <c r="E86" t="s">
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" t="s">
         <v>137</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="E86" s="10"/>
+      <c r="G86" s="15" t="s">
         <v>475</v>
       </c>
       <c r="L86">
@@ -23794,17 +23798,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:B35"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C50"/>
     <mergeCell ref="B52:B86"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="C58:C62"/>
@@ -23813,6 +23806,17 @@
     <mergeCell ref="C71:C75"/>
     <mergeCell ref="C76:C82"/>
     <mergeCell ref="C83:C86"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B2:B35"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
